--- a/ClaimsExample.xlsx
+++ b/ClaimsExample.xlsx
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I28" si="0">SUM(G3:H3)</f>
+        <f t="shared" ref="I3:I30" si="0">SUM(G3:H3)</f>
         <v>220</v>
       </c>
     </row>
@@ -713,11 +713,11 @@
         <v>40360</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D20" si="2">EDATE(C10,7)</f>
+        <f t="shared" ref="D10:D22" si="2">EDATE(C10,7)</f>
         <v>40575</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E28" si="3">D10</f>
+        <f t="shared" ref="E10:E30" si="3">D10</f>
         <v>40575</v>
       </c>
       <c r="F10" s="1">
@@ -847,11 +847,10 @@
         <v>40787</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
         <v>40787</v>
       </c>
       <c r="F14" s="1">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="G14" s="2">
         <v>900</v>
@@ -866,304 +865,297 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40575</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40787</v>
+      </c>
+      <c r="F15" s="1">
+        <v>41091</v>
+      </c>
+      <c r="G15" s="2">
+        <v>650</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40575</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40787</v>
+      </c>
+      <c r="F16" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>105</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
         <f>EDATE(C14,4)</f>
         <v>40695</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>40909</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="3"/>
         <v>40909</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F17" s="1">
         <v>40909</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G17" s="2">
         <v>500</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>90</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>106</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:C19" si="4">EDATE(C15,4)</f>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C21" si="4">EDATE(C17,4)</f>
         <v>40817</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>41030</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="3"/>
         <v>41030</v>
       </c>
-      <c r="F16" s="1">
-        <f>EDATE(E16,4)</f>
+      <c r="F18" s="1">
+        <f>EDATE(E18,4)</f>
         <v>41153</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <v>600</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>80</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>107</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="4"/>
+      <c r="C19" s="1">
+        <f>EDATE(C18,4)</f>
         <v>40940</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="1">
         <f t="shared" si="2"/>
         <v>41153</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="3"/>
         <v>41153</v>
       </c>
-      <c r="F17" s="1">
-        <f>E17</f>
+      <c r="F19" s="1">
+        <f>E19</f>
         <v>41153</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <v>1050</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H19" s="2">
         <v>40</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>1090</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>108</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="4"/>
         <v>41061</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="1">
         <f t="shared" si="2"/>
         <v>41275</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="3"/>
         <v>41275</v>
       </c>
-      <c r="F18" s="1">
-        <f>E18</f>
+      <c r="F20" s="1">
+        <f>E20</f>
         <v>41275</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <v>800</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <v>50</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>109</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="4"/>
         <v>41183</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="1">
         <f t="shared" si="2"/>
         <v>41395</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="3"/>
         <v>41395</v>
       </c>
-      <c r="F19" s="1">
-        <f>E19</f>
+      <c r="F21" s="1">
+        <f>E21</f>
         <v>41395</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>600</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>100</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>109</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
-        <f>C19</f>
+      <c r="C22" s="1">
+        <f>C21</f>
         <v>41183</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
         <v>41395</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="3"/>
         <v>41395</v>
       </c>
-      <c r="F20" s="1">
-        <f>EDATE(F19,8)</f>
-        <v>41640</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F22" s="1">
+        <v>41609</v>
+      </c>
+      <c r="G22" s="2">
         <v>7000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>7000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>110</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>41275</v>
-      </c>
-      <c r="D21" s="1">
-        <f>EDATE(C21,1)</f>
-        <v>41306</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
-        <v>41306</v>
-      </c>
-      <c r="F21" s="1">
-        <f>EDATE(E21,5)</f>
-        <v>41456</v>
-      </c>
-      <c r="G21" s="2">
-        <v>40000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>111</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>41456</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:D28" si="5">EDATE(C22,1)</f>
-        <v>41487</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="3"/>
-        <v>41487</v>
-      </c>
-      <c r="F22" s="1">
-        <f>E22</f>
-        <v>41487</v>
-      </c>
-      <c r="G22" s="2">
-        <v>600</v>
-      </c>
-      <c r="H22" s="2">
-        <v>150</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
+        <v>41275</v>
+      </c>
+      <c r="D23" s="1">
+        <f>EDATE(C23,1)</f>
+        <v>41306</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>41306</v>
+      </c>
+      <c r="F23" s="1">
+        <f>EDATE(E23,5)</f>
         <v>41456</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="5"/>
-        <v>41487</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>41487</v>
-      </c>
-      <c r="F23" s="1">
-        <f>EDATE(F22,1)</f>
-        <v>41518</v>
-      </c>
       <c r="G23" s="2">
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="H23" s="2">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1177,7 +1169,7 @@
         <v>41456</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D24:D30" si="5">EDATE(C24,1)</f>
         <v>41487</v>
       </c>
       <c r="E24" s="1">
@@ -1185,18 +1177,18 @@
         <v>41487</v>
       </c>
       <c r="F24" s="1">
-        <f>F23</f>
-        <v>41518</v>
+        <f>E24</f>
+        <v>41487</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,82 +1210,84 @@
         <v>41487</v>
       </c>
       <c r="F25" s="1">
-        <f>EDATE(F24,2)</f>
-        <v>41579</v>
+        <f>EDATE(F24,1)</f>
+        <v>41518</v>
       </c>
       <c r="G25" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>41579</v>
+        <v>41487</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>41579</v>
+        <v>41487</v>
       </c>
       <c r="F26" s="1">
-        <v>41579</v>
+        <f>F25</f>
+        <v>41518</v>
       </c>
       <c r="G26" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
         <v>100</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
+        <v>41487</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
+        <v>41487</v>
+      </c>
+      <c r="F27" s="1">
+        <f>EDATE(F26,2)</f>
         <v>41579</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="3"/>
-        <v>41579</v>
-      </c>
-      <c r="F27" s="1">
-        <v>41593</v>
-      </c>
       <c r="G27" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1315,15 +1309,79 @@
         <v>41579</v>
       </c>
       <c r="F28" s="1">
+        <v>41579</v>
+      </c>
+      <c r="G28" s="2">
+        <v>500</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41548</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>41579</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>41579</v>
+      </c>
+      <c r="F29" s="1">
+        <v>41593</v>
+      </c>
+      <c r="G29" s="2">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41548</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>41579</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>41579</v>
+      </c>
+      <c r="F30" s="1">
         <v>41609</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>2000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>60</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
